--- a/medicine/Handicap/Ladyhawke_(chanteuse)/Ladyhawke_(chanteuse).xlsx
+++ b/medicine/Handicap/Ladyhawke_(chanteuse)/Ladyhawke_(chanteuse).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ladyhawke, née Philippa Brown, surnommée « Pip » Brown, (née en juillet 1979 à Masterton) est une chanteuse-compositrice originaire de Nouvelle-Zélande. Elle s'est fait connaître par sa chanson Paris Is Burning qu'elle a composée après avoir passé un séjour à Paris.
 Elle joue plus de dix instruments. 
@@ -513,20 +525,127 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Originaire de Masterton, une ville près de Wellington, en Nouvelle-Zélande, Pip est issue d'une famille de musiciens, sa mère étant une chanteuse et son beau-père, un batteur. 
-Pendant son enfance des maladies diverses et des allergies l'ont faite voyager entre l'hôpital et son domicile. À 10 ans, elle contracte une maladie présente chez les mouettes alors que le virus avait disparu de la Nouvelle-Zélande depuis 20 ans. Ses allergies aux antibiotiques, la pénicilline et des antihistaminiques ont compliqué ses traitements, l'ont mise dans le coma et ont failli la pousser à la mort. Elle ne tolère pas le lactose et on lui a diagnostiqué le syndrome d'Asperger[1].
-En 2008, elle déclare à ce sujet qu’il « ne faut pas en avoir peur ; certains ne se rendent pas compte qu’ils l’ont. J’ai seulement une forme mineure »[2]. Brown explique avoir parfois quelques troubles durant les balances[2].
+Pendant son enfance des maladies diverses et des allergies l'ont faite voyager entre l'hôpital et son domicile. À 10 ans, elle contracte une maladie présente chez les mouettes alors que le virus avait disparu de la Nouvelle-Zélande depuis 20 ans. Ses allergies aux antibiotiques, la pénicilline et des antihistaminiques ont compliqué ses traitements, l'ont mise dans le coma et ont failli la pousser à la mort. Elle ne tolère pas le lactose et on lui a diagnostiqué le syndrome d'Asperger.
+En 2008, elle déclare à ce sujet qu’il « ne faut pas en avoir peur ; certains ne se rendent pas compte qu’ils l’ont. J’ai seulement une forme mineure ». Brown explique avoir parfois quelques troubles durant les balances.
 Au lycée, elle joue dans plusieurs groupes de grunge-rock. Après le lycée, elle emménage à Wellington. 
-Two Lane Blacktop
-Après le lycée, Philipa quitte Masterton pour Wellington. Elle forme le groupe « Two Lane Blacktop » avec des amis, elle y joue de la guitare. Elle décrit le groupe comme étant une fusion entre Iggy and The Stooges et The Clash. Le nom du groupe est issu d'un film qui porte le même nom.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Ladyhawke_(chanteuse)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ladyhawke_(chanteuse)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Two Lane Blacktop</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après le lycée, Philipa quitte Masterton pour Wellington. Elle forme le groupe « Two Lane Blacktop » avec des amis, elle y joue de la guitare. Elle décrit le groupe comme étant une fusion entre Iggy and The Stooges et The Clash. Le nom du groupe est issu d'un film qui porte le même nom.
 Two Lane Blacktop se sépare au moment où le batteur et le chanteur principal quittent le groupe.
 Philipa prend[Quand ?] l'avion pour Melbourne, en Australie.
-Teenager
-Un jour après son arrivée à Melbourne, le musicien Nick Littlemore du groupe Pnau entend parler de Pip Brown et lui demande si elle est intéressée de rejoindre un groupe qu'il avait déjà nommé « Teenager », Philipa aime la musique de Nick et se décide à le rejoindre, ils travaillent ensemble pendant deux ans, Philipa déménage à Sydney pour se rapprocher du groupe et aussi des personnes avec qui elle s'était plu à écrire et jouer de la musique. Toujours avec Nick Littlemore, Philipa décide de quitter « Teenager » pour se concentrer sur un projet personnel qu'elle voulait développer, « Ladyhawke ». 
-Ladyhawke
-« J'aime comment la musique évoque des souvenirs, j'ai voulu créer une méthode de compos qui feraient émerger ces sentiments de moi et de la personne qui l'écouterait pour la première fois. » dit-elle.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Ladyhawke_(chanteuse)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ladyhawke_(chanteuse)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Teenager</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un jour après son arrivée à Melbourne, le musicien Nick Littlemore du groupe Pnau entend parler de Pip Brown et lui demande si elle est intéressée de rejoindre un groupe qu'il avait déjà nommé « Teenager », Philipa aime la musique de Nick et se décide à le rejoindre, ils travaillent ensemble pendant deux ans, Philipa déménage à Sydney pour se rapprocher du groupe et aussi des personnes avec qui elle s'était plu à écrire et jouer de la musique. Toujours avec Nick Littlemore, Philipa décide de quitter « Teenager » pour se concentrer sur un projet personnel qu'elle voulait développer, « Ladyhawke ». 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Ladyhawke_(chanteuse)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ladyhawke_(chanteuse)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Ladyhawke</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">« J'aime comment la musique évoque des souvenirs, j'ai voulu créer une méthode de compos qui feraient émerger ces sentiments de moi et de la personne qui l'écouterait pour la première fois. » dit-elle.
 Ladyhawke est sous l'influence des années 1980. Peaches à qui sa musique a été comparée, remixe la chanson Paris is Burning. Ladyhawke est aussi comparée à Cyndi Lauper, Pat Benatar, Kim Wilde, Annie, et New Young Pony Club[réf. souhaitée]. Elle a été nommée au NME Music Awards dans la catégorie du « Meilleur artiste Solo ». Christina Aguilera a repris sa chanson My Delirium pour son prochain album. La réinterprétation a été coproduite par le groupe électro, Ladytron. 
 Pip est apparue pour la première fois dans le Triple J Hottest 100 en 2008 : un classement établi par les auditeurs de la station de radio Triple J qui regroupe les 100 chansons préférées des Australiens. Trois chansons de Ladyhawke y figuraient : My Delirium, à la 11e place, Paris is Burning à la 26e place et une chanson du groupe Pnau sur laquelle la voix de Ladyhawke figurait, Embrace, qui est arrivée à la 12e place.
 Elle a aussi affirmé être influencée par Electric Light Orchestra et a déclaré que leur album Time était un de ses albums préférés. Ladyhawke tire aussi son inspiration des années 1990. « Écouter Nirvana me fait revenir en arrière, à l'époque où j'avais quatorze ans, les groupes des années 1990 ont cet effet sur moi. ». Ladyhawke a été comparée à la vague des femmes individualistes et androgynes, chanteuses de pop dans les années 1920.
@@ -537,78 +656,158 @@
 Un premier clip, illustrant A Love Song, est mis en ligne le 8 avril 2016. Un second clip, illustrant Wild Things, est mis en ligne le 20 juillet 2016.
 Ladyhawke revient en 2021 avec le nouveau morceau brillant «Guilty Love»’ avec BROODS (Georgia Nott), la première chanson issue du nouvel album très attendu qui sortira plus tard cette année. Hymne pop inspiré du glam rock, «Guilty Love» porte un message fort. La vidéo capture parfaitement les sentiments de la chanson et joue le scénario de deux filles qui fréquentent une école catholique pour filles qui ont des sentiments l'une pour l'autre, mais tout ce qui leur est enseigné dans cette école dit que leurs sentiments sont faux ou pas naturels. Le message final est que l'amour vaincra toujours la haine. Ladyhawke dit: «Guilty Love» est important pour Georgia et moi pour différentes raisons. Personnellement, en grandissant dans le système scolaire catholique, alors que j'arrivais à l'adolescence, j'ai commencé à ressentir une immense honte et un déni de ma sexualité. J'ai souffert de la peur constante d'être jugée et aliénée par mes amis et ma famille. Ces sentiments ont mis du temps à se dissiper et à se concrétiser. «Guilty Love» est un moyen de partager nos expériences et, espérons-le, d’aider quiconque vit la même chose à savoir qu’il n’est pas seul »
 Après la sortie en mai dernier du morceau  «Mixed Emotions», Ladyhawke sortira le 8 octobre 2021 son nouvel album baptisé «Time Flies».
-Tournées
-Elle a tourné avec le duo des Ting Tings en février 2009 au Royaume-Uni. Elle se produit au festival South by Southwest 2009 et participe au Summer Party 2009 à l'Université de Nottingham. Elle a notamment assuré la première partie du groupe britannique Keane au Zénith de Paris en 2008.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Ladyhawke_(chanteuse)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ladyhawke_(chanteuse)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Ladyhawke</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Tournées</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle a tourné avec le duo des Ting Tings en février 2009 au Royaume-Uni. Elle se produit au festival South by Southwest 2009 et participe au Summer Party 2009 à l'Université de Nottingham. Elle a notamment assuré la première partie du groupe britannique Keane au Zénith de Paris en 2008.
 Elle s'est produite à l’United Kingdom Tour en mai 2009. Le 29 mai 2009, elle se produit au Barclaycard Mercury Prize Sessions au club de Covent Garden. Le 2 août 2009, elle a joué à l'Underage Festival. Elle s'est aussi produit au festival de l'Ile de Wight et aux Latitude Festivals.
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Ladyhawke_(chanteuse)</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Handicap/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Ladyhawke_(chanteuse)</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Ladyhawke_(chanteuse)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ladyhawke_(chanteuse)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Lesbianisme</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bien qu'ouvertement lesbienne[3], ses producteurs lui demandent de cacher son lesbianisme à son arrivée au Royaume-Uni[4].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bien qu'ouvertement lesbienne, ses producteurs lui demandent de cacher son lesbianisme à son arrivée au Royaume-Uni.
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Ladyhawke_(chanteuse)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Handicap/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Ladyhawke_(chanteuse)</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Ladyhawke_(chanteuse)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ladyhawke_(chanteuse)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Discographie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Albums
-2008 : Ladyhawke, classé 47e au Royaume-Uni, 16e en Australie, sorti le 22 septembre 2008.
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Albums</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2008 : Ladyhawke, classé 47e au Royaume-Uni, 16e en Australie, sorti le 22 septembre 2008.
 2008 : Paris Is Burning / Back Of The Van (EP) (The Remixes)
 2012 : Anxiety
 2016 : Wild Things
-2021 : Time Flies
-Singles
-2008 : Back of the Van
+2021 : Time Flies</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Ladyhawke_(chanteuse)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ladyhawke_(chanteuse)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Discographie</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Singles</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2008 : Back of the Van
 2008 : Embrace (avec PNAU)
 2008 : Paris Is Burning, sorti le 30 juin 2008
 2008 : Dusk Till Dawn/Danny and Jenny sorti le 18 septembre 2008
@@ -622,37 +821,73 @@
 2016 : Let It Roll
 2016 : Wild Things
 2021 : Guilty Love
-2021 ; Mixed Emotions
-Maxis
-2008 : Dusk 'Till Dawn</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Ladyhawke_(chanteuse)</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Handicap/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Ladyhawke_(chanteuse)</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+2021 ; Mixed Emotions</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Ladyhawke_(chanteuse)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ladyhawke_(chanteuse)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Discographie</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Maxis</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2008 : Dusk 'Till Dawn</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Ladyhawke_(chanteuse)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ladyhawke_(chanteuse)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Awards</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>New Zealand Music Awards
 ARIA Music Awards
